--- a/data2.xlsx
+++ b/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rinod\PycharmProjects\People-Data-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4276A32-9EAE-425F-9488-38FD0CFD7759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D6F097-EA74-47BF-B12B-A16B7D21290A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
